--- a/inst/extdata/cohorts.xlsx
+++ b/inst/extdata/cohorts.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayca\OneDrive\Documents\Ella\COMETSAnalytics\inst\extdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="48" windowWidth="20112" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$34</definedName>
+  </definedNames>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Cohort</t>
   </si>
@@ -126,8 +134,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +173,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -211,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,9 +259,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,6 +311,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,20 +504,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,302 +525,299 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B18" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B32" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="B33" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
       <c r="B34" s="1">
         <v>42620</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>42620</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:B34">
+    <sortState ref="A2:B35">
+      <sortCondition ref="A2:A35"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/cohorts.xlsx
+++ b/inst/extdata/cohorts.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayca\OneDrive\Documents\Ella\COMETSAnalytics\inst\extdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="48" windowWidth="20112" windowHeight="7992"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26355" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,21 +12,18 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$41</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>Cohort</t>
   </si>
   <si>
-    <t>DateCreated</t>
-  </si>
-  <si>
     <t>ATBC</t>
   </si>
   <si>
@@ -129,14 +121,149 @@
   </si>
   <si>
     <t>MANO</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>Investigator</t>
+  </si>
+  <si>
+    <t>SC approval date</t>
+  </si>
+  <si>
+    <t>AIRWAVE</t>
+  </si>
+  <si>
+    <t>ALSPAC</t>
+  </si>
+  <si>
+    <t>BiB</t>
+  </si>
+  <si>
+    <t>UPBEAT</t>
+  </si>
+  <si>
+    <t>WIHS</t>
+  </si>
+  <si>
+    <t>POPS</t>
+  </si>
+  <si>
+    <t>Singapore Project</t>
+  </si>
+  <si>
+    <t>Neli Ulrich</t>
+  </si>
+  <si>
+    <t>Ella Temprosa</t>
+  </si>
+  <si>
+    <t>Rachael Stolzenberg-Solomon, Demetrius Albanes</t>
+  </si>
+  <si>
+    <t>Clara Barrios Barrera</t>
+  </si>
+  <si>
+    <t>Eric Boerwinkle</t>
+  </si>
+  <si>
+    <t>Heather Eliassen</t>
+  </si>
+  <si>
+    <t>Christian Gieger</t>
+  </si>
+  <si>
+    <t>Tamara Harris</t>
+  </si>
+  <si>
+    <t>Debbie Lawlor</t>
+  </si>
+  <si>
+    <t>Loic Le Marchand</t>
+  </si>
+  <si>
+    <t>Charles Matthews</t>
+  </si>
+  <si>
+    <t>Cristina Menni</t>
+  </si>
+  <si>
+    <t>Steven Moore</t>
+  </si>
+  <si>
+    <t>Matej Oresic</t>
+  </si>
+  <si>
+    <t>Eric Orwoll</t>
+  </si>
+  <si>
+    <t>Alexandre Pereira</t>
+  </si>
+  <si>
+    <t>Neli Ulrich, Kathryn Rexrode</t>
+  </si>
+  <si>
+    <t>Svati Shah</t>
+  </si>
+  <si>
+    <t>Xiao-ou Shu</t>
+  </si>
+  <si>
+    <t>Victoria Stevens</t>
+  </si>
+  <si>
+    <t>Joanna Tzoulaki</t>
+  </si>
+  <si>
+    <t>Hua Zhao</t>
+  </si>
+  <si>
+    <t>Jessica Lasky-Su</t>
+  </si>
+  <si>
+    <t>Claudia Langenberg</t>
+  </si>
+  <si>
+    <t>Marc Gunter, 
+Claudia Langenberg</t>
+  </si>
+  <si>
+    <t>Ann Hsing</t>
+  </si>
+  <si>
+    <t>David Herrington</t>
+  </si>
+  <si>
+    <t>Tsuroka</t>
+  </si>
+  <si>
+    <t>Sei Harada</t>
+  </si>
+  <si>
+    <t>Seow Wei Jie</t>
+  </si>
+  <si>
+    <t>Qibin Qi</t>
+  </si>
+  <si>
+    <t>Robert Gerszten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -164,9 +291,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,7 +369,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,27 +401,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,24 +435,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,320 +610,550 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4">
+        <v>42810</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4">
+        <v>42810</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B5" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>42810</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4">
+        <v>42620</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4">
+        <v>42873</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4">
+        <v>42957</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B38" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4">
+        <v>42838</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B40" s="4">
+        <v>42620</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="1">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="1">
-        <v>42620</v>
+      <c r="B41" s="4">
+        <v>42620</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1">
+        <v>42873</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B34">
-    <sortState ref="A2:B35">
-      <sortCondition ref="A2:A35"/>
+  <autoFilter ref="A1:B41">
+    <sortState ref="A2:B42">
+      <sortCondition ref="A4:A42"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/cohorts.xlsx
+++ b/inst/extdata/cohorts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26355" windowHeight="12015"/>
+    <workbookView xWindow="11055" yWindow="-285" windowWidth="12015" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$49</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="131">
   <si>
     <t>Cohort</t>
   </si>
@@ -27,21 +27,12 @@
     <t>ATBC</t>
   </si>
   <si>
-    <t>Genodiab</t>
-  </si>
-  <si>
     <t>ARIC</t>
   </si>
   <si>
-    <t>UCLEB</t>
-  </si>
-  <si>
     <t>Framingham</t>
   </si>
   <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
     <t>EPIC</t>
   </si>
   <si>
@@ -90,9 +81,6 @@
     <t>NHS</t>
   </si>
   <si>
-    <t>HPHS</t>
-  </si>
-  <si>
     <t>PHS</t>
   </si>
   <si>
@@ -148,9 +136,6 @@
   </si>
   <si>
     <t>POPS</t>
-  </si>
-  <si>
-    <t>Singapore Project</t>
   </si>
   <si>
     <t>Neli Ulrich</t>
@@ -235,9 +220,6 @@
     <t>David Herrington</t>
   </si>
   <si>
-    <t>Tsuroka</t>
-  </si>
-  <si>
     <t>Sei Harada</t>
   </si>
   <si>
@@ -248,13 +230,196 @@
   </si>
   <si>
     <t>Robert Gerszten</t>
+  </si>
+  <si>
+    <t>LongName</t>
+  </si>
+  <si>
+    <t>KORA</t>
+  </si>
+  <si>
+    <t>Airwave Health Monitoring Study</t>
+  </si>
+  <si>
+    <t>Avon Longitudinal Study of Parents and Children</t>
+  </si>
+  <si>
+    <t>Atherosclerosis Risk in Communities Study</t>
+  </si>
+  <si>
+    <t>Alpha-Tocopherol, Beta-Carotene Cancer Prevention</t>
+  </si>
+  <si>
+    <t>Baependi Heart Study</t>
+  </si>
+  <si>
+    <t>Born in Bradford</t>
+  </si>
+  <si>
+    <t>Breast Cancer Family Registry</t>
+  </si>
+  <si>
+    <t>Childhood Asthma Management Program</t>
+  </si>
+  <si>
+    <t>Catheterization Genetics</t>
+  </si>
+  <si>
+    <t>Cancer Prevention Study – II</t>
+  </si>
+  <si>
+    <t>Diabetes Prediction and Prevention Birth Cohort</t>
+  </si>
+  <si>
+    <t>Diabetes Prevention Program Outcomes Study</t>
+  </si>
+  <si>
+    <t>European Prospective Investigation into Cancer and Nutrition</t>
+  </si>
+  <si>
+    <t>CAPS</t>
+  </si>
+  <si>
+    <t>Caerphilly Prospective Study</t>
+  </si>
+  <si>
+    <t>BWHHS</t>
+  </si>
+  <si>
+    <t>British Women’s Heart and Health Study</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Estonia Biobank Obesity Extremes</t>
+  </si>
+  <si>
+    <t>Edinburgh Type 2 Diabetes Study</t>
+  </si>
+  <si>
+    <t>ET2DS</t>
+  </si>
+  <si>
+    <t>Genomewide Scan for Early-Onset Coronary Artery Disease</t>
+  </si>
+  <si>
+    <t>Genodiab-Mar</t>
+  </si>
+  <si>
+    <t>Health Professional Follow-up Study</t>
+  </si>
+  <si>
+    <t>HPFS</t>
+  </si>
+  <si>
+    <t>Mexican American Cohort</t>
+  </si>
+  <si>
+    <t>Multi-Ethnic Cohort</t>
+  </si>
+  <si>
+    <t>Multi-Ethnic Study of Atherosclerosis</t>
+  </si>
+  <si>
+    <t>Osteoporotic Fractures in Men Study</t>
+  </si>
+  <si>
+    <t>Nurses' Health Studies</t>
+  </si>
+  <si>
+    <t>Health, Aging, and Body Composition Study</t>
+  </si>
+  <si>
+    <t>Type 2 diabetes reigstry of Litoral-Mar</t>
+  </si>
+  <si>
+    <t>Physician Health Study</t>
+  </si>
+  <si>
+    <t>Prostate, Lung, Colorectal, and Ovarian Cancer Screening Trial</t>
+  </si>
+  <si>
+    <t>National Survey of Health and Development</t>
+  </si>
+  <si>
+    <t>NSHD</t>
+  </si>
+  <si>
+    <t>Northern Sweden Health and Disease Study</t>
+  </si>
+  <si>
+    <t>NSHDS</t>
+  </si>
+  <si>
+    <t>Pregnancy Outcomes Prediction Study</t>
+  </si>
+  <si>
+    <t>Shanghai Physical Activity Study</t>
+  </si>
+  <si>
+    <t>Shanghai Men's Health Study</t>
+  </si>
+  <si>
+    <t>Shanghai Women's Health Study</t>
+  </si>
+  <si>
+    <t>SABRE</t>
+  </si>
+  <si>
+    <t>Southall and Brent Revisited</t>
+  </si>
+  <si>
+    <t>Singapore Prospective Study Program</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>Tsuruoka Metabolomic Cohort Study</t>
+  </si>
+  <si>
+    <t>UK Pregancies Better Eating and Activity Trial</t>
+  </si>
+  <si>
+    <t>Vitamin D Antenatal Asthma Reduction Trial</t>
+  </si>
+  <si>
+    <t>Women's Health Initiative</t>
+  </si>
+  <si>
+    <t>Women’s Interagency HIV Study</t>
+  </si>
+  <si>
+    <t>Whitehall</t>
+  </si>
+  <si>
+    <t>Kooperative Health Research in Augsburg</t>
+  </si>
+  <si>
+    <t>Tsuruoka</t>
+  </si>
+  <si>
+    <t>Yoav Ben-Shlomo</t>
+  </si>
+  <si>
+    <t>Jackie Price</t>
+  </si>
+  <si>
+    <t>Project Viva</t>
+  </si>
+  <si>
+    <t>Wei Perng</t>
+  </si>
+  <si>
+    <t>WELL-China</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +435,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF64766B"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -279,7 +469,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -287,28 +477,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="double">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,6 +569,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 40" descr="External Web Site Policy">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1304925" y="6362700"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -611,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -622,516 +914,740 @@
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5">
+        <v>42810</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5">
+        <v>42810</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
         <v>42810</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4">
-        <v>42810</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E8" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
+        <v>43118</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="E16" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30">
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5">
+        <v>43118</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6" t="s">
+      <c r="B22" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="E29" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <v>42810</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="4">
-        <v>42620</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B30" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
+      <c r="E32" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4">
-        <v>42873</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4">
-        <v>42957</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="5">
+        <v>42620</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5">
+        <v>42873</v>
+      </c>
       <c r="D37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="21">
+        <v>43238</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5">
+        <v>42957</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5">
+        <v>42838</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="21">
+        <v>43300</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="5">
+        <v>42620</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4">
-        <v>42838</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="4">
-        <v>42620</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="4">
-        <v>42620</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="E49" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="18">
         <v>42873</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>74</v>
+      <c r="D51" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B41">
-    <sortState ref="A2:B42">
-      <sortCondition ref="A4:A42"/>
+  <autoFilter ref="A1:E49">
+    <sortState ref="A2:E51">
+      <sortCondition ref="A1:A49"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
